--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2473313.127139885</v>
+        <v>-2475880.615018367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.2830023150578</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>344.8220524225847</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2322022722602</v>
+        <v>334.2322022722601</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0257380076017</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>148.7329565814587</v>
+        <v>279.8393000378531</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.51701068787236</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.5887207466849</v>
+        <v>230.5887207466848</v>
       </c>
       <c r="V11" t="n">
         <v>307.3014191217121</v>
@@ -1433,10 +1433,10 @@
         <v>328.7901293689902</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>349.2802613300462</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.7870993076308</v>
+        <v>251.3701717333895</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.0823443014446</v>
+        <v>146.0823443014445</v>
       </c>
       <c r="C12" t="n">
         <v>152.2576596398929</v>
       </c>
       <c r="D12" t="n">
-        <v>126.994226216216</v>
+        <v>126.9942262162159</v>
       </c>
       <c r="E12" t="n">
-        <v>137.1942411069782</v>
+        <v>137.1942411069781</v>
       </c>
       <c r="F12" t="n">
-        <v>124.6183730449611</v>
+        <v>124.618373044961</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8455016504109</v>
+        <v>114.8455016504108</v>
       </c>
       <c r="H12" t="n">
-        <v>72.01319298474891</v>
+        <v>72.01319298474885</v>
       </c>
       <c r="I12" t="n">
-        <v>8.587624465791869</v>
+        <v>8.587624465791819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>113.2069323863958</v>
       </c>
       <c r="T12" t="n">
-        <v>171.4623327891075</v>
+        <v>171.4623327891074</v>
       </c>
       <c r="U12" t="n">
-        <v>205.3558600901588</v>
+        <v>205.3558600901587</v>
       </c>
       <c r="V12" t="n">
-        <v>212.3497478010025</v>
+        <v>212.3497478010024</v>
       </c>
       <c r="W12" t="n">
-        <v>231.2441438124968</v>
+        <v>231.2441438124967</v>
       </c>
       <c r="X12" t="n">
-        <v>185.3221458550547</v>
+        <v>185.3221458550546</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.2318564288816</v>
+        <v>185.2318564288815</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3811408335145</v>
+        <v>159.3811408335144</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.795981750205</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.9831232981463</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21.33274463559919</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.5170105670819</v>
       </c>
       <c r="I13" t="n">
-        <v>83.3863031308596</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.67219462618058</v>
+        <v>79.67219462618056</v>
       </c>
       <c r="S13" t="n">
-        <v>71.17039813200432</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.1615377913011</v>
+        <v>200.161537791301</v>
       </c>
       <c r="U13" t="n">
-        <v>265.774574532044</v>
+        <v>265.7745745320439</v>
       </c>
       <c r="V13" t="n">
-        <v>231.6868039754052</v>
+        <v>231.6868039754051</v>
       </c>
       <c r="W13" t="n">
-        <v>266.0721589881682</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2588160406144</v>
+        <v>205.2588160406143</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.133814003672</v>
+        <v>198.1338140036719</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002517</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574541</v>
+        <v>316.169601257454</v>
       </c>
       <c r="E14" t="n">
-        <v>343.4169297090329</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784826</v>
+        <v>368.3626053784824</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4082852902246</v>
+        <v>372.4082852902245</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>177.312885948838</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.4045297763913</v>
+        <v>165.4045297763912</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4817315956731</v>
+        <v>212.481731595673</v>
       </c>
       <c r="V14" t="n">
-        <v>289.238818106906</v>
+        <v>289.2388181069059</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541841</v>
+        <v>310.727528354184</v>
       </c>
       <c r="X14" t="n">
-        <v>156.3478390637928</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187084</v>
+        <v>141.3185398187083</v>
       </c>
       <c r="C16" t="n">
-        <v>128.733380735399</v>
+        <v>128.7333807353988</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549835</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833403</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597024</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957993</v>
+        <v>127.5123678957992</v>
       </c>
       <c r="H16" t="n">
-        <v>106.2415745510919</v>
+        <v>106.2415745510918</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660919</v>
+        <v>57.83898004660912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681843</v>
+        <v>50.41871230681835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.255584968213</v>
+        <v>151.2555849682129</v>
       </c>
       <c r="T16" t="n">
-        <v>181.0355089129403</v>
+        <v>181.0355089129402</v>
       </c>
       <c r="U16" t="n">
-        <v>247.698397842384</v>
+        <v>247.6983978423839</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605991</v>
+        <v>213.624202960599</v>
       </c>
       <c r="W16" t="n">
-        <v>46.27594988848804</v>
+        <v>46.27594988849037</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.0712129888659</v>
+        <v>180.0712129888658</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
         <v>313.2370054253485</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115152</v>
@@ -1901,16 +1901,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333694</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U19" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609322</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2214,7 +2214,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383239</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052293</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482634</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333699</v>
+        <v>92.08430510333689</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U22" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>305.4999607837984</v>
       </c>
       <c r="C26" t="n">
-        <v>288.0390108913255</v>
+        <v>288.0390108913254</v>
       </c>
       <c r="D26" t="n">
         <v>277.4491607410008</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.95388090849372</v>
+        <v>31.95388090849369</v>
       </c>
       <c r="T26" t="n">
         <v>126.684089259938</v>
       </c>
       <c r="U26" t="n">
-        <v>173.7612910792199</v>
+        <v>173.7612910792198</v>
       </c>
       <c r="V26" t="n">
         <v>250.5183775904528</v>
@@ -2621,7 +2621,7 @@
         <v>292.4972197987869</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.0040577763715</v>
+        <v>309.0040577763714</v>
       </c>
     </row>
     <row r="27">
@@ -2646,7 +2646,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.999469165708</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
         <v>89.59687541851115</v>
@@ -2713,25 +2713,25 @@
         <v>102.5980993022552</v>
       </c>
       <c r="C28" t="n">
-        <v>90.01294021894572</v>
+        <v>90.01294021894569</v>
       </c>
       <c r="D28" t="n">
-        <v>71.38159213853024</v>
+        <v>71.38159213853021</v>
       </c>
       <c r="E28" t="n">
-        <v>69.20008176688705</v>
+        <v>69.20008176688702</v>
       </c>
       <c r="F28" t="n">
-        <v>68.18716714324913</v>
+        <v>68.1871671432491</v>
       </c>
       <c r="G28" t="n">
-        <v>88.79192737934611</v>
+        <v>88.79192737934608</v>
       </c>
       <c r="H28" t="n">
-        <v>67.52113403463866</v>
+        <v>67.52113403463864</v>
       </c>
       <c r="I28" t="n">
-        <v>19.11853953015598</v>
+        <v>19.11853953015595</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.69827179036521</v>
+        <v>11.69827179036518</v>
       </c>
       <c r="S28" t="n">
-        <v>112.5351444517598</v>
+        <v>112.5351444517597</v>
       </c>
       <c r="T28" t="n">
-        <v>142.3150683964871</v>
+        <v>142.315068396487</v>
       </c>
       <c r="U28" t="n">
         <v>208.9779573259307</v>
@@ -2779,7 +2779,7 @@
         <v>148.475774509355</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.3507724724127</v>
+        <v>141.3507724724126</v>
       </c>
     </row>
     <row r="29">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851098</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3396,7 +3396,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189234</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3630,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.3104517307971</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383242</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,16 +4034,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I45" t="n">
         <v>18.81721868247742</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>935.8003673374184</v>
+        <v>1064.507103255854</v>
       </c>
       <c r="C11" t="n">
-        <v>935.8003673374184</v>
+        <v>716.2019997986966</v>
       </c>
       <c r="D11" t="n">
-        <v>598.1920822139232</v>
+        <v>378.5937146752016</v>
       </c>
       <c r="E11" t="n">
-        <v>598.1920822139232</v>
+        <v>378.5937146752016</v>
       </c>
       <c r="F11" t="n">
-        <v>598.1920822139232</v>
+        <v>378.5937146752016</v>
       </c>
       <c r="G11" t="n">
-        <v>203.2165892769524</v>
+        <v>378.5937146752016</v>
       </c>
       <c r="H11" t="n">
-        <v>52.98127959871132</v>
+        <v>95.92775504100659</v>
       </c>
       <c r="I11" t="n">
-        <v>52.98127959871132</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J11" t="n">
-        <v>195.238989313561</v>
+        <v>195.2389893135605</v>
       </c>
       <c r="K11" t="n">
-        <v>459.1849379150985</v>
+        <v>459.1849379150977</v>
       </c>
       <c r="L11" t="n">
-        <v>823.5349887105659</v>
+        <v>823.5349887105649</v>
       </c>
       <c r="M11" t="n">
-        <v>1260.614060403608</v>
+        <v>1260.614060403606</v>
       </c>
       <c r="N11" t="n">
-        <v>1709.379336807576</v>
+        <v>1709.379336807575</v>
       </c>
       <c r="O11" t="n">
-        <v>2119.800400583366</v>
+        <v>2119.800400583365</v>
       </c>
       <c r="P11" t="n">
-        <v>2435.584282230147</v>
+        <v>2435.584282230146</v>
       </c>
       <c r="Q11" t="n">
-        <v>2624.552079607774</v>
+        <v>2624.552079607771</v>
       </c>
       <c r="R11" t="n">
-        <v>2649.063979935566</v>
+        <v>2649.063979935564</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.659327802141</v>
+        <v>2546.659327802139</v>
       </c>
       <c r="T11" t="n">
-        <v>2546.659327802141</v>
+        <v>2546.659327802139</v>
       </c>
       <c r="U11" t="n">
-        <v>2313.741428058015</v>
+        <v>2313.741428058013</v>
       </c>
       <c r="V11" t="n">
-        <v>2003.3359541977</v>
+        <v>2003.335954197698</v>
       </c>
       <c r="W11" t="n">
-        <v>1671.224712410841</v>
+        <v>1671.224712410839</v>
       </c>
       <c r="X11" t="n">
-        <v>1671.224712410841</v>
+        <v>1318.416367633014</v>
       </c>
       <c r="Y11" t="n">
-        <v>1301.742793918284</v>
+        <v>1064.507103255854</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>796.9316019310342</v>
+        <v>796.9316019310339</v>
       </c>
       <c r="C12" t="n">
-        <v>643.1359861331625</v>
+        <v>643.1359861331623</v>
       </c>
       <c r="D12" t="n">
-        <v>514.8589899551667</v>
+        <v>514.8589899551664</v>
       </c>
       <c r="E12" t="n">
-        <v>376.2789484329666</v>
+        <v>376.2789484329664</v>
       </c>
       <c r="F12" t="n">
-        <v>250.401803943107</v>
+        <v>250.4018039431067</v>
       </c>
       <c r="G12" t="n">
-        <v>134.3962467204697</v>
+        <v>134.3962467204695</v>
       </c>
       <c r="H12" t="n">
-        <v>61.65564774597584</v>
+        <v>61.65564774597573</v>
       </c>
       <c r="I12" t="n">
-        <v>52.98127959871132</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1374809399457</v>
+        <v>139.1374809399456</v>
       </c>
       <c r="K12" t="n">
-        <v>350.189103079688</v>
+        <v>350.1891030796876</v>
       </c>
       <c r="L12" t="n">
-        <v>673.3192360231919</v>
+        <v>673.3192360231917</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.373545965051</v>
+        <v>1066.37354596505</v>
       </c>
       <c r="N12" t="n">
         <v>1483.703618701677</v>
       </c>
       <c r="O12" t="n">
-        <v>1844.984201582348</v>
+        <v>1844.984201582347</v>
       </c>
       <c r="P12" t="n">
-        <v>2119.607519575157</v>
+        <v>2119.607519575156</v>
       </c>
       <c r="Q12" t="n">
-        <v>2259.978933382945</v>
+        <v>2259.978933382944</v>
       </c>
       <c r="R12" t="n">
-        <v>2261.836009470976</v>
+        <v>2261.836009470975</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.485572717041</v>
+        <v>2147.48557271704</v>
       </c>
       <c r="T12" t="n">
-        <v>1974.291297172488</v>
+        <v>1974.291297172487</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.861135465257</v>
+        <v>1766.861135465256</v>
       </c>
       <c r="V12" t="n">
         <v>1552.366440716769</v>
       </c>
       <c r="W12" t="n">
-        <v>1318.786497471823</v>
+        <v>1318.786497471822</v>
       </c>
       <c r="X12" t="n">
         <v>1131.592410749545</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.4895254678469</v>
+        <v>944.4895254678465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>137.2098686197816</v>
+        <v>477.8589162159152</v>
       </c>
       <c r="C13" t="n">
-        <v>137.2098686197816</v>
+        <v>329.5801467712641</v>
       </c>
       <c r="D13" t="n">
-        <v>137.2098686197816</v>
+        <v>329.5801467712641</v>
       </c>
       <c r="E13" t="n">
-        <v>137.2098686197816</v>
+        <v>202.3244666721265</v>
       </c>
       <c r="F13" t="n">
-        <v>137.2098686197816</v>
+        <v>180.7762397674808</v>
       </c>
       <c r="G13" t="n">
-        <v>137.2098686197816</v>
+        <v>180.7762397674808</v>
       </c>
       <c r="H13" t="n">
-        <v>137.2098686197816</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="I13" t="n">
-        <v>52.98127959871132</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J13" t="n">
-        <v>100.9298691497004</v>
+        <v>100.9298691497005</v>
       </c>
       <c r="K13" t="n">
-        <v>296.536357489119</v>
+        <v>296.5363574891189</v>
       </c>
       <c r="L13" t="n">
-        <v>596.7097501100704</v>
+        <v>596.7097501100702</v>
       </c>
       <c r="M13" t="n">
-        <v>922.4890420161319</v>
+        <v>922.4890420161315</v>
       </c>
       <c r="N13" t="n">
-        <v>1246.438059432375</v>
+        <v>1246.438059432374</v>
       </c>
       <c r="O13" t="n">
-        <v>1531.186681524062</v>
+        <v>1531.186681524061</v>
       </c>
       <c r="P13" t="n">
         <v>1754.239734500396</v>
       </c>
       <c r="Q13" t="n">
-        <v>1831.463847329786</v>
+        <v>1831.463847329785</v>
       </c>
       <c r="R13" t="n">
         <v>1750.986883060916</v>
       </c>
       <c r="S13" t="n">
-        <v>1679.097592018488</v>
+        <v>1750.986883060916</v>
       </c>
       <c r="T13" t="n">
-        <v>1476.914220512123</v>
+        <v>1548.803511554551</v>
       </c>
       <c r="U13" t="n">
-        <v>1208.45505431814</v>
+        <v>1280.344345360568</v>
       </c>
       <c r="V13" t="n">
-        <v>974.4279795955081</v>
+        <v>1046.317270637936</v>
       </c>
       <c r="W13" t="n">
-        <v>705.6682230418028</v>
+        <v>1046.317270637936</v>
       </c>
       <c r="X13" t="n">
-        <v>498.3360856270408</v>
+        <v>838.9851332231742</v>
       </c>
       <c r="Y13" t="n">
-        <v>298.200919966766</v>
+        <v>638.8499675628996</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1481.014562528339</v>
+        <v>1990.178539656235</v>
       </c>
       <c r="C14" t="n">
-        <v>1481.014562528339</v>
+        <v>1660.118487729186</v>
       </c>
       <c r="D14" t="n">
-        <v>1161.651328934951</v>
+        <v>1340.755254135799</v>
       </c>
       <c r="E14" t="n">
-        <v>814.7655413500695</v>
+        <v>993.869466550917</v>
       </c>
       <c r="F14" t="n">
-        <v>442.6821015738244</v>
+        <v>621.7860267746721</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>245.6160416330299</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
@@ -5282,31 +5282,31 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3158.530539006756</v>
+        <v>3158.530539006755</v>
       </c>
       <c r="U14" t="n">
         <v>2943.902527293954</v>
@@ -5318,10 +5318,10 @@
         <v>2337.875914706995</v>
       </c>
       <c r="X14" t="n">
-        <v>2179.948804541547</v>
+        <v>2337.875914706995</v>
       </c>
       <c r="Y14" t="n">
-        <v>1828.711937579098</v>
+        <v>2337.875914706995</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>819.2964253482698</v>
+        <v>819.2964253482692</v>
       </c>
       <c r="C16" t="n">
-        <v>689.2627074337254</v>
+        <v>689.2627074337248</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0485330347522</v>
+        <v>578.0485330347517</v>
       </c>
       <c r="E16" t="n">
-        <v>469.0379044657215</v>
+        <v>469.0379044657212</v>
       </c>
       <c r="F16" t="n">
-        <v>361.0504219811737</v>
+        <v>361.0504219811734</v>
       </c>
       <c r="G16" t="n">
-        <v>232.2500503692552</v>
+        <v>232.250050369255</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9353286004755</v>
+        <v>124.9353286004754</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471888</v>
+        <v>391.8785437471886</v>
       </c>
       <c r="L16" t="n">
-        <v>746.5666481552817</v>
+        <v>746.5666481552813</v>
       </c>
       <c r="M16" t="n">
         <v>1128.851999714427</v>
@@ -5449,13 +5449,13 @@
         <v>1508.388682379888</v>
       </c>
       <c r="O16" t="n">
-        <v>1845.846587259899</v>
+        <v>1845.846587259898</v>
       </c>
       <c r="P16" t="n">
         <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765265</v>
+        <v>2232.320995765266</v>
       </c>
       <c r="R16" t="n">
         <v>2181.393003536156</v>
@@ -5464,22 +5464,22 @@
         <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.745433959233</v>
+        <v>1845.745433959234</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.54503209824</v>
+        <v>1595.545032098241</v>
       </c>
       <c r="V16" t="n">
-        <v>1379.763008905715</v>
+        <v>1379.763008905716</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.01962517997</v>
+        <v>1333.019625179968</v>
       </c>
       <c r="X16" t="n">
-        <v>1143.932539295315</v>
+        <v>1143.932539295314</v>
       </c>
       <c r="Y16" t="n">
-        <v>962.0424251651471</v>
+        <v>962.0424251651463</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0427429954468</v>
+        <v>155.2189959588248</v>
       </c>
       <c r="K19" t="n">
-        <v>370.0614702889411</v>
+        <v>350.2377232523191</v>
       </c>
       <c r="L19" t="n">
-        <v>622.4791872371222</v>
+        <v>602.6554402005003</v>
       </c>
       <c r="M19" t="n">
-        <v>886.6195415621439</v>
+        <v>770.087921499698</v>
       </c>
       <c r="N19" t="n">
-        <v>1154.636251617815</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O19" t="n">
-        <v>1378.103768707685</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P19" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T19" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F20" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5820,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170926</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630291</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E22" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F22" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J22" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155311</v>
       </c>
       <c r="K22" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L22" t="n">
-        <v>622.4791872371221</v>
+        <v>527.0902910313827</v>
       </c>
       <c r="M22" t="n">
-        <v>886.6195415621438</v>
+        <v>791.2306453564045</v>
       </c>
       <c r="N22" t="n">
-        <v>1057.928378591991</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O22" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P22" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552142</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V22" t="n">
-        <v>927.421422430467</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673497</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431758</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.236426073489</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C23" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464991</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307349</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -6017,22 +6017,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X23" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y23" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218343</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170928</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F25" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226756</v>
+        <v>67.83109325226769</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970702</v>
+        <v>176.3617198155311</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832013</v>
+        <v>371.3804471090255</v>
       </c>
       <c r="L25" t="n">
-        <v>527.0902910313823</v>
+        <v>623.7981640572067</v>
       </c>
       <c r="M25" t="n">
-        <v>791.230645356404</v>
+        <v>887.9385183822285</v>
       </c>
       <c r="N25" t="n">
-        <v>1059.247355412075</v>
+        <v>1134.812504581193</v>
       </c>
       <c r="O25" t="n">
-        <v>1293.873577656089</v>
+        <v>1369.438726825206</v>
       </c>
       <c r="P25" t="n">
-        <v>1392.824580408848</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W25" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1840.988531507978</v>
       </c>
       <c r="C26" t="n">
-        <v>1550.040035658154</v>
+        <v>1550.040035658155</v>
       </c>
       <c r="D26" t="n">
         <v>1269.788358141992</v>
       </c>
       <c r="E26" t="n">
-        <v>962.0141266343358</v>
+        <v>962.0141266343362</v>
       </c>
       <c r="F26" t="n">
-        <v>629.0422429353162</v>
+        <v>629.0422429353166</v>
       </c>
       <c r="G26" t="n">
         <v>291.9838138709011</v>
@@ -6224,10 +6224,10 @@
         <v>107.714616165945</v>
       </c>
       <c r="J26" t="n">
-        <v>373.0552891958557</v>
+        <v>373.0552891958558</v>
       </c>
       <c r="K26" t="n">
-        <v>706.8746628857022</v>
+        <v>706.8746628857023</v>
       </c>
       <c r="L26" t="n">
         <v>1157.908876134111</v>
@@ -6239,13 +6239,13 @@
         <v>2314.681139935703</v>
       </c>
       <c r="O26" t="n">
-        <v>2817.65361081504</v>
+        <v>2894.115152885925</v>
       </c>
       <c r="P26" t="n">
-        <v>3212.427977172218</v>
+        <v>3313.408300200334</v>
       </c>
       <c r="Q26" t="n">
-        <v>3485.233119885131</v>
+        <v>3561.694661956016</v>
       </c>
       <c r="R26" t="n">
         <v>3620.711728512818</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.4459726191815</v>
+        <v>947.4459726191816</v>
       </c>
       <c r="C27" t="n">
-        <v>772.9929433380545</v>
+        <v>772.9929433380546</v>
       </c>
       <c r="D27" t="n">
-        <v>624.0585336768032</v>
+        <v>624.0585336768033</v>
       </c>
       <c r="E27" t="n">
-        <v>464.8210786713477</v>
+        <v>464.8210786713478</v>
       </c>
       <c r="F27" t="n">
-        <v>318.2865206982327</v>
+        <v>318.2865206982328</v>
       </c>
       <c r="G27" t="n">
         <v>181.9234205308509</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.4176509457643</v>
+        <v>551.4176509457642</v>
       </c>
       <c r="C28" t="n">
-        <v>460.4954891084454</v>
+        <v>460.4954891084453</v>
       </c>
       <c r="D28" t="n">
-        <v>388.3928707866977</v>
+        <v>388.3928707866976</v>
       </c>
       <c r="E28" t="n">
-        <v>318.4937982948926</v>
+        <v>318.4937982948925</v>
       </c>
       <c r="F28" t="n">
-        <v>249.6178718875703</v>
+        <v>249.6178718875702</v>
       </c>
       <c r="G28" t="n">
         <v>159.9290563528772</v>
       </c>
       <c r="H28" t="n">
-        <v>91.72589066132301</v>
+        <v>91.72589066132298</v>
       </c>
       <c r="I28" t="n">
         <v>72.41423457025637</v>
       </c>
       <c r="J28" t="n">
-        <v>160.6985301785811</v>
+        <v>193.9984090880773</v>
       </c>
       <c r="K28" t="n">
-        <v>335.4709265171368</v>
+        <v>474.447134107839</v>
       </c>
       <c r="L28" t="n">
-        <v>683.9591402503984</v>
+        <v>706.6185201010816</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8531636204815</v>
+        <v>950.5125434711647</v>
       </c>
       <c r="N28" t="n">
-        <v>1175.623542721214</v>
+        <v>1198.282922571897</v>
       </c>
       <c r="O28" t="n">
-        <v>1551.414683712513</v>
+        <v>1412.662813860972</v>
       </c>
       <c r="P28" t="n">
-        <v>1726.827228536157</v>
+        <v>1662.137699742183</v>
       </c>
       <c r="Q28" t="n">
         <v>1816.209537965583</v>
@@ -6421,13 +6421,13 @@
         <v>1159.20933149216</v>
       </c>
       <c r="W28" t="n">
-        <v>947.8061825457875</v>
+        <v>947.8061825457872</v>
       </c>
       <c r="X28" t="n">
-        <v>797.8306527383581</v>
+        <v>797.8306527383579</v>
       </c>
       <c r="Y28" t="n">
-        <v>655.052094685416</v>
+        <v>655.0520946854159</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1955.671712554366</v>
+        <v>1955.671712554367</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.478165174435</v>
+        <v>1646.478165174436</v>
       </c>
       <c r="D29" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090402</v>
+        <v>1021.962153090403</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612757</v>
+        <v>670.745217861276</v>
       </c>
       <c r="G29" t="n">
-        <v>315.4417372667531</v>
+        <v>315.4417372667533</v>
       </c>
       <c r="H29" t="n">
         <v>77.62710643600128</v>
       </c>
       <c r="I29" t="n">
-        <v>95.04551302703157</v>
+        <v>95.04551302703183</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522839</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K29" t="n">
-        <v>734.9031518083576</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.628403861145</v>
+        <v>1836.628403861146</v>
       </c>
       <c r="N29" t="n">
         <v>2441.986787986155</v>
@@ -6488,25 +6488,25 @@
         <v>3881.355321800064</v>
       </c>
       <c r="S29" t="n">
-        <v>3830.83362288764</v>
+        <v>3830.833622887641</v>
       </c>
       <c r="T29" t="n">
-        <v>3684.624844832343</v>
+        <v>3684.624844832344</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
-        <v>2926.569734173937</v>
+        <v>2926.569734173938</v>
       </c>
       <c r="X29" t="n">
-        <v>2612.872945473338</v>
+        <v>2612.872945473339</v>
       </c>
       <c r="Y29" t="n">
-        <v>2282.502583058007</v>
+        <v>2282.502583058008</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>952.6588444849265</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C30" t="n">
-        <v>778.2058152037995</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D30" t="n">
-        <v>629.2714055425482</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E30" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F30" t="n">
         <v>323.4993925639777</v>
@@ -6625,16 +6625,16 @@
         <v>304.9198483735656</v>
       </c>
       <c r="L31" t="n">
-        <v>680.059213888289</v>
+        <v>590.0221099638798</v>
       </c>
       <c r="M31" t="n">
-        <v>1082.795826554065</v>
+        <v>992.7587226296559</v>
       </c>
       <c r="N31" t="n">
-        <v>1482.783770326157</v>
+        <v>1392.746666401748</v>
       </c>
       <c r="O31" t="n">
-        <v>1840.692936312798</v>
+        <v>1750.655832388388</v>
       </c>
       <c r="P31" t="n">
         <v>2041.842899888275</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955.671712554367</v>
+        <v>1955.671712554366</v>
       </c>
       <c r="C32" t="n">
-        <v>1646.478165174436</v>
+        <v>1646.478165174435</v>
       </c>
       <c r="D32" t="n">
         <v>1347.981436128166</v>
       </c>
       <c r="E32" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612758</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G32" t="n">
-        <v>315.4417372667533</v>
+        <v>315.4417372667531</v>
       </c>
       <c r="H32" t="n">
         <v>77.62710643600128</v>
@@ -6701,7 +6701,7 @@
         <v>342.5042110522845</v>
       </c>
       <c r="K32" t="n">
-        <v>734.9031518083582</v>
+        <v>734.9031518083578</v>
       </c>
       <c r="L32" t="n">
         <v>1244.516932122994</v>
@@ -6725,10 +6725,10 @@
         <v>3881.355321800064</v>
       </c>
       <c r="S32" t="n">
-        <v>3830.833622887641</v>
+        <v>3830.83362288764</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832344</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U32" t="n">
         <v>3490.863337666661</v>
@@ -6743,7 +6743,7 @@
         <v>2612.872945473338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2282.502583058008</v>
+        <v>2282.502583058007</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849266</v>
+        <v>952.6588444849265</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037996</v>
+        <v>778.2058152037995</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425483</v>
+        <v>629.2714055425482</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370928</v>
+        <v>470.0339505370927</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6771,7 +6771,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446332</v>
+        <v>96.63439803446335</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
@@ -6865,13 +6865,13 @@
         <v>680.059213888289</v>
       </c>
       <c r="M34" t="n">
-        <v>992.7587226296564</v>
+        <v>1082.795826554065</v>
       </c>
       <c r="N34" t="n">
-        <v>1392.746666401748</v>
+        <v>1482.783770326157</v>
       </c>
       <c r="O34" t="n">
-        <v>1750.655832388389</v>
+        <v>1840.692936312798</v>
       </c>
       <c r="P34" t="n">
         <v>2041.842899888275</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,67 +6920,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218468</v>
+        <v>66.51211643218195</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170928</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155311</v>
       </c>
       <c r="K37" t="n">
-        <v>370.061470288941</v>
+        <v>350.2377232523185</v>
       </c>
       <c r="L37" t="n">
-        <v>622.4791872371221</v>
+        <v>602.6554402004997</v>
       </c>
       <c r="M37" t="n">
-        <v>886.6195415621437</v>
+        <v>866.7957945255215</v>
       </c>
       <c r="N37" t="n">
-        <v>1154.636251617815</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O37" t="n">
-        <v>1292.554600836005</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P37" t="n">
-        <v>1477.054771460444</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W37" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464991</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307349</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,19 +7172,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7330,52 +7330,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954469</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>370.0614702889412</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0634411854744</v>
+        <v>602.6554402004997</v>
       </c>
       <c r="M40" t="n">
-        <v>682.0450903563526</v>
+        <v>866.7957945255215</v>
       </c>
       <c r="N40" t="n">
-        <v>950.0618004120239</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W40" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7406,31 +7406,31 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218377</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,16 +7439,16 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
@@ -7464,70 +7464,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
         <v>231.3077836159871</v>
@@ -7564,28 +7564,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226755</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J43" t="n">
-        <v>176.3617198155308</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>371.380447109025</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L43" t="n">
-        <v>623.7981640572061</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M43" t="n">
-        <v>887.9385183822278</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N43" t="n">
-        <v>1155.955228437899</v>
+        <v>941.3967585295469</v>
       </c>
       <c r="O43" t="n">
-        <v>1369.438726825209</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577967</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
         <v>1481.310496936508</v>
@@ -7594,7 +7594,7 @@
         <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
         <v>1273.865908363024</v>
@@ -7603,16 +7603,16 @@
         <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673502</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7661,7 +7661,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226765</v>
+        <v>67.83109325226762</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572066</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>887.9385183822283</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N46" t="n">
-        <v>1155.9552284379</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O46" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936507</v>
@@ -7831,7 +7831,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
         <v>1273.865908363023</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>117.4917451919384</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10045,13 +10045,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>74.81044551269315</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>71.52813192093902</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
@@ -10285,7 +10285,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>44.05999369342555</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>87.56309128883061</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10522,7 +10522,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>44.05999369342601</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.77393521240705</v>
+        <v>14.77393521240704</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.2830023150577</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8220524225848</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>361.479530723839</v>
+        <v>361.4795307238389</v>
       </c>
       <c r="F11" t="n">
         <v>386.4252063932886</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>391.0257380076016</v>
       </c>
       <c r="H11" t="n">
-        <v>131.1063434563944</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.51701068787236</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>185.895994119202</v>
+        <v>185.8959941192019</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>349.2802613300462</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>114.4169275742413</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>146.795981750205</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1646336697896</v>
+        <v>128.1646336697895</v>
       </c>
       <c r="E13" t="n">
-        <v>125.9831232981464</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9702086745085</v>
+        <v>103.6374640389092</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8238562829267</v>
+        <v>145.8238562829266</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5170105670819</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.38630313085955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>102.4852159668324</v>
+        <v>173.6556140988367</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.0721589881682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>256.0943240240916</v>
+        <v>78.78143807525345</v>
       </c>
       <c r="I14" t="n">
-        <v>3.06348940969707</v>
+        <v>3.063489409696984</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.67432142494692</v>
+        <v>70.67432142494685</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>174.8698212514473</v>
+        <v>331.21766031524</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="15">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.733608084874</v>
+        <v>201.7336080848716</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170382</v>
       </c>
       <c r="C2" t="n">
-        <v>81927.63387170383</v>
+        <v>81927.63387170385</v>
       </c>
       <c r="D2" t="n">
-        <v>81931.84313803357</v>
+        <v>81931.84313803354</v>
       </c>
       <c r="E2" t="n">
-        <v>65602.25077682505</v>
+        <v>65602.25077682502</v>
       </c>
       <c r="F2" t="n">
-        <v>75001.58352318166</v>
+        <v>75001.58352318165</v>
       </c>
       <c r="G2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="H2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="I2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.1769864285</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="P2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="I2" t="n">
-        <v>82104.17698642834</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642847</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642836</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642833</v>
-      </c>
-      <c r="P2" t="n">
-        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>112652.3317030137</v>
+        <v>112652.3317030164</v>
       </c>
       <c r="E3" t="n">
-        <v>873064.1422095085</v>
+        <v>873064.1422095054</v>
       </c>
       <c r="F3" t="n">
-        <v>172008.5015608265</v>
+        <v>172008.5015608269</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.02389190081</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>16770.33007928798</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.02389190084</v>
+        <v>47337.0238919008</v>
       </c>
       <c r="M3" t="n">
-        <v>161226.337693156</v>
+        <v>161226.3376931558</v>
       </c>
       <c r="N3" t="n">
-        <v>41425.84091389769</v>
+        <v>41425.84091389797</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,37 +26421,37 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>421768.1011935027</v>
+        <v>421768.1011935017</v>
       </c>
       <c r="E4" t="n">
-        <v>48306.99980317948</v>
+        <v>48306.99980317961</v>
       </c>
       <c r="F4" t="n">
-        <v>54789.435218395</v>
+        <v>54789.43521839511</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="J4" t="n">
-        <v>94538.12497809286</v>
+        <v>94538.12497809291</v>
       </c>
       <c r="K4" t="n">
         <v>95465.08003076463</v>
       </c>
       <c r="L4" t="n">
-        <v>95465.08003076461</v>
+        <v>95465.08003076463</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="O4" t="n">
         <v>93774.13782657695</v>
@@ -26473,22 +26473,22 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36495.16268711826</v>
+        <v>36495.16268711833</v>
       </c>
       <c r="E5" t="n">
-        <v>62733.36411102007</v>
+        <v>62733.36411102003</v>
       </c>
       <c r="F5" t="n">
-        <v>77544.12697928959</v>
+        <v>77544.12697928958</v>
       </c>
       <c r="G5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="H5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="H5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="I5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="J5" t="n">
         <v>85284.92547800273</v>
@@ -26500,10 +26500,10 @@
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419315.9260600274</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="C6" t="n">
-        <v>-419315.9260600274</v>
+        <v>-419320.3396378955</v>
       </c>
       <c r="D6" t="n">
-        <v>-488983.7524456011</v>
+        <v>-488988.0607918127</v>
       </c>
       <c r="E6" t="n">
-        <v>-918502.2553468831</v>
+        <v>-918914.8035021202</v>
       </c>
       <c r="F6" t="n">
-        <v>-229340.4802353294</v>
+        <v>-229518.0450719111</v>
       </c>
       <c r="G6" t="n">
         <v>-141525.5820382994</v>
       </c>
       <c r="H6" t="n">
-        <v>-94188.55814639843</v>
+        <v>-94188.55814639859</v>
       </c>
       <c r="I6" t="n">
-        <v>-94188.55814639846</v>
+        <v>-94188.55814639859</v>
       </c>
       <c r="J6" t="n">
         <v>-117022.0459461416</v>
@@ -26552,16 +26552,16 @@
         <v>-148426.1302274922</v>
       </c>
       <c r="M6" t="n">
-        <v>-255414.8958395545</v>
+        <v>-255414.8958395543</v>
       </c>
       <c r="N6" t="n">
-        <v>-135614.3990602961</v>
+        <v>-135614.3990602965</v>
       </c>
       <c r="O6" t="n">
-        <v>-94188.55814639847</v>
+        <v>-94188.55814639834</v>
       </c>
       <c r="P6" t="n">
-        <v>-94188.55814639862</v>
+        <v>-94188.55814639856</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="F2" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J2" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="K2" t="n">
         <v>59.17127986487601</v>
@@ -26716,16 +26716,16 @@
         <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810502</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810502</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810488</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035899</v>
+        <v>131.5395728035931</v>
       </c>
       <c r="E3" t="n">
-        <v>951.7573395787574</v>
+        <v>951.7573395787568</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838916</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
@@ -26820,7 +26820,7 @@
         <v>970.3388304500161</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26829,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842279</v>
+        <v>20.45083934842286</v>
       </c>
       <c r="F2" t="n">
-        <v>18.06260101480611</v>
+        <v>18.06260101480613</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487605</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
-        <v>38.51344036322885</v>
+        <v>38.51344036322902</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035899</v>
+        <v>131.5395728035931</v>
       </c>
       <c r="E3" t="n">
-        <v>820.2177667751674</v>
+        <v>820.2177667751638</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0193610145409</v>
+        <v>138.0193610145412</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838916</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="F4" t="n">
-        <v>169.1354604184012</v>
+        <v>169.1354604184016</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.3286199361686</v>
+        <v>523.3286199361672</v>
       </c>
       <c r="N4" t="n">
-        <v>169.135460418401</v>
+        <v>169.1354604184021</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.45083934842279</v>
+        <v>20.45083934842286</v>
       </c>
       <c r="K2" t="n">
-        <v>18.06260101480611</v>
+        <v>18.06260101480613</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487606</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>662.2659949838916</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="N4" t="n">
-        <v>169.1354604184012</v>
+        <v>169.1354604184016</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.059205532954</v>
+        <v>334.0592055329539</v>
       </c>
       <c r="I8" t="n">
-        <v>190.0892387944847</v>
+        <v>190.0892387944842</v>
       </c>
       <c r="J8" t="n">
-        <v>136.1644700855257</v>
+        <v>136.1644700855246</v>
       </c>
       <c r="K8" t="n">
-        <v>152.8242151293437</v>
+        <v>152.8242151293422</v>
       </c>
       <c r="L8" t="n">
-        <v>152.3174455822384</v>
+        <v>152.3174455822364</v>
       </c>
       <c r="M8" t="n">
-        <v>137.4931758883848</v>
+        <v>137.4931758883826</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0575467150771</v>
+        <v>135.0575467150749</v>
       </c>
       <c r="O8" t="n">
-        <v>141.0009724379244</v>
+        <v>141.0009724379223</v>
       </c>
       <c r="P8" t="n">
-        <v>155.1905636201048</v>
+        <v>155.1905636201029</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.2009902057312</v>
+        <v>165.2009902057299</v>
       </c>
       <c r="R8" t="n">
-        <v>182.3681601653944</v>
+        <v>182.3681601653936</v>
       </c>
       <c r="S8" t="n">
-        <v>196.969987112831</v>
+        <v>196.9699871128308</v>
       </c>
       <c r="T8" t="n">
         <v>220.7810174839395</v>
@@ -27947,40 +27947,40 @@
         <v>137.0605829877463</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5028957524068</v>
+        <v>109.5028957524067</v>
       </c>
       <c r="I9" t="n">
-        <v>89.78100597633791</v>
+        <v>89.78100597633768</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1065517821183</v>
+        <v>100.1065517821176</v>
       </c>
       <c r="K9" t="n">
-        <v>92.15377433370077</v>
+        <v>92.15377433369969</v>
       </c>
       <c r="L9" t="n">
-        <v>77.12167646249945</v>
+        <v>77.12167646249799</v>
       </c>
       <c r="M9" t="n">
-        <v>70.4449667440618</v>
+        <v>70.4449667440601</v>
       </c>
       <c r="N9" t="n">
-        <v>57.7552486146533</v>
+        <v>57.75524861465155</v>
       </c>
       <c r="O9" t="n">
-        <v>75.27900665315818</v>
+        <v>75.27900665315657</v>
       </c>
       <c r="P9" t="n">
-        <v>79.94638929430477</v>
+        <v>79.94638929430349</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.8654747758736</v>
+        <v>103.8654747758727</v>
       </c>
       <c r="R9" t="n">
-        <v>128.1127662978543</v>
+        <v>128.1127662978539</v>
       </c>
       <c r="S9" t="n">
-        <v>166.4277928885246</v>
+        <v>166.4277928885245</v>
       </c>
       <c r="T9" t="n">
         <v>199.0243054174018</v>
@@ -28029,37 +28029,37 @@
         <v>160.1182265697033</v>
       </c>
       <c r="I10" t="n">
-        <v>148.3171485857128</v>
+        <v>148.3171485857126</v>
       </c>
       <c r="J10" t="n">
-        <v>110.2252041001581</v>
+        <v>110.2252041001577</v>
       </c>
       <c r="K10" t="n">
-        <v>101.4546394749636</v>
+        <v>101.4546394749629</v>
       </c>
       <c r="L10" t="n">
-        <v>99.61913245123975</v>
+        <v>99.61913245123893</v>
       </c>
       <c r="M10" t="n">
-        <v>101.7432125729772</v>
+        <v>101.7432125729763</v>
       </c>
       <c r="N10" t="n">
-        <v>91.38709153076056</v>
+        <v>91.38709153075969</v>
       </c>
       <c r="O10" t="n">
-        <v>104.9290420920032</v>
+        <v>104.9290420920024</v>
       </c>
       <c r="P10" t="n">
-        <v>109.0394388593286</v>
+        <v>109.0394388593279</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.6425261361038</v>
+        <v>131.6425261361033</v>
       </c>
       <c r="R10" t="n">
-        <v>166.6279040478817</v>
+        <v>166.6279040478814</v>
       </c>
       <c r="S10" t="n">
-        <v>219.8828052326365</v>
+        <v>219.8828052326364</v>
       </c>
       <c r="T10" t="n">
         <v>226.932087801762</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="C11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="D11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="E11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="F11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="G11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="H11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="I11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="T11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="U11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="V11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="W11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="X11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="C12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="D12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="E12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="F12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="G12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="H12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="I12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="J12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="K12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="L12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="M12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="N12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="O12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="P12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="R12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="S12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="T12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="U12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="V12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="W12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="X12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="C13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="D13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="E13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="F13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="G13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="H13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="I13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="J13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="K13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="L13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="M13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="N13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="O13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="P13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="R13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="S13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="T13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="U13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="V13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="W13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="X13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.45083934842278</v>
+        <v>20.45083934842287</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="C14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="D14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="E14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="F14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="H14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="T14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="U14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="V14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="W14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="X14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
     </row>
     <row r="15">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="C16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="D16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="F16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="G16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="H16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="J16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="K16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="L16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="M16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="N16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="O16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="P16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="R16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="S16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="T16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="U16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="V16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="W16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="X16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.5134403632289</v>
+        <v>38.51344036322899</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415939</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O19" t="n">
-        <v>86.4133008804846</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="21">
@@ -28934,7 +28934,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>76.32843350415908</v>
       </c>
       <c r="P22" t="n">
-        <v>86.41330088048483</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350415837</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>76.32843350416087</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29272,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="C26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="D26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="E26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="F26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="G26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="H26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="I26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="J26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29308,40 +29308,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>24.7664454113434</v>
       </c>
       <c r="Q26" t="n">
-        <v>24.76644541134371</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>77.23388087968212</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="T26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="U26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="V26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="W26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="X26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="C28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="D28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="E28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="F28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="G28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="H28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="I28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="J28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="K28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="L28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="M28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="N28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="O28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="P28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="R28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="S28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="T28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="U28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="V28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="W28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="X28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.23388087968212</v>
+        <v>77.23388087968215</v>
       </c>
     </row>
     <row r="29">
@@ -29551,7 +29551,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="P29" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487571</v>
       </c>
       <c r="Q29" t="n">
         <v>59.17127986487601</v>
@@ -29779,7 +29779,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="M32" t="n">
-        <v>59.17127986487583</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="N32" t="n">
         <v>59.17127986487601</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I35" t="n">
-        <v>41.5769297729272</v>
+        <v>41.5769297729245</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="36">
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K37" t="n">
-        <v>97.68472022810489</v>
+        <v>76.3284335041586</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P37" t="n">
-        <v>86.41330088048531</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810489</v>
+        <v>77.66073332242547</v>
       </c>
       <c r="M40" t="n">
-        <v>86.41330088048525</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810488</v>
+        <v>76.32843350416087</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>76.32843350416138</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.32843350416013</v>
       </c>
       <c r="P46" t="n">
-        <v>76.32843350415934</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5288023027279994</v>
+        <v>0.528802302728012</v>
       </c>
       <c r="H8" t="n">
-        <v>5.415596582813125</v>
+        <v>5.415596582813254</v>
       </c>
       <c r="I8" t="n">
-        <v>20.38665077592121</v>
+        <v>20.3866507759217</v>
       </c>
       <c r="J8" t="n">
-        <v>44.88143444116058</v>
+        <v>44.88143444116164</v>
       </c>
       <c r="K8" t="n">
-        <v>67.26563591563681</v>
+        <v>67.2656359156384</v>
       </c>
       <c r="L8" t="n">
-        <v>83.44896938774883</v>
+        <v>83.44896938775082</v>
       </c>
       <c r="M8" t="n">
-        <v>92.85305733888789</v>
+        <v>92.8530573388901</v>
       </c>
       <c r="N8" t="n">
-        <v>94.35551688151382</v>
+        <v>94.35551688151607</v>
       </c>
       <c r="O8" t="n">
-        <v>89.09723898376228</v>
+        <v>89.0972389837644</v>
       </c>
       <c r="P8" t="n">
-        <v>76.04243213516477</v>
+        <v>76.04243213516659</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.10469966871828</v>
+        <v>57.10469966871964</v>
       </c>
       <c r="R8" t="n">
-        <v>33.21737764873772</v>
+        <v>33.21737764873851</v>
       </c>
       <c r="S8" t="n">
-        <v>12.0500824734143</v>
+        <v>12.05008247341459</v>
       </c>
       <c r="T8" t="n">
-        <v>2.314832080191819</v>
+        <v>2.314832080191874</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04230418421823994</v>
+        <v>0.04230418421824095</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2829341754643255</v>
+        <v>0.2829341754643323</v>
       </c>
       <c r="H9" t="n">
-        <v>2.732548484089671</v>
+        <v>2.732548484089736</v>
       </c>
       <c r="I9" t="n">
-        <v>9.741374023662088</v>
+        <v>9.741374023662319</v>
       </c>
       <c r="J9" t="n">
-        <v>26.73107488454841</v>
+        <v>26.73107488454905</v>
       </c>
       <c r="K9" t="n">
-        <v>45.68766464065822</v>
+        <v>45.68766464065931</v>
       </c>
       <c r="L9" t="n">
-        <v>61.43270331737473</v>
+        <v>61.43270331737619</v>
       </c>
       <c r="M9" t="n">
-        <v>71.68906717795652</v>
+        <v>71.68906717795822</v>
       </c>
       <c r="N9" t="n">
-        <v>73.58646346868001</v>
+        <v>73.58646346868176</v>
       </c>
       <c r="O9" t="n">
-        <v>67.31723779128626</v>
+        <v>67.31723779128787</v>
       </c>
       <c r="P9" t="n">
-        <v>54.02801812002547</v>
+        <v>54.02801812002675</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.11629931014794</v>
+        <v>36.1162993101488</v>
       </c>
       <c r="R9" t="n">
-        <v>17.56673766610962</v>
+        <v>17.56673766611004</v>
       </c>
       <c r="S9" t="n">
-        <v>5.255378215313237</v>
+        <v>5.255378215313361</v>
       </c>
       <c r="T9" t="n">
-        <v>1.140423277419803</v>
+        <v>1.14042327741983</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01861409049107406</v>
+        <v>0.0186140904910745</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2372025083343425</v>
+        <v>0.2372025083343481</v>
       </c>
       <c r="H10" t="n">
-        <v>2.108945937736247</v>
+        <v>2.108945937736297</v>
       </c>
       <c r="I10" t="n">
-        <v>7.133326341545502</v>
+        <v>7.133326341545672</v>
       </c>
       <c r="J10" t="n">
-        <v>16.77021733923801</v>
+        <v>16.77021733923841</v>
       </c>
       <c r="K10" t="n">
-        <v>27.55861869557179</v>
+        <v>27.55861869557244</v>
       </c>
       <c r="L10" t="n">
-        <v>35.26554382999853</v>
+        <v>35.26554382999937</v>
       </c>
       <c r="M10" t="n">
-        <v>37.18257137462788</v>
+        <v>37.18257137462876</v>
       </c>
       <c r="N10" t="n">
-        <v>36.29845293447264</v>
+        <v>36.2984529344735</v>
       </c>
       <c r="O10" t="n">
-        <v>33.52749635983962</v>
+        <v>33.52749635984042</v>
       </c>
       <c r="P10" t="n">
-        <v>28.68856518981901</v>
+        <v>28.68856518981969</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.86247549334208</v>
+        <v>19.86247549334255</v>
       </c>
       <c r="R10" t="n">
-        <v>10.6654873292878</v>
+        <v>10.66548732928805</v>
       </c>
       <c r="S10" t="n">
-        <v>4.133792804335767</v>
+        <v>4.133792804335866</v>
       </c>
       <c r="T10" t="n">
-        <v>1.013501626519463</v>
+        <v>1.013501626519487</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0129383186364187</v>
+        <v>0.01293831863641901</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.82616015911058</v>
+        <v>3.826160159110577</v>
       </c>
       <c r="H11" t="n">
-        <v>39.18466272949124</v>
+        <v>39.18466272949121</v>
       </c>
       <c r="I11" t="n">
-        <v>147.5080395341108</v>
+        <v>147.5080395341107</v>
       </c>
       <c r="J11" t="n">
-        <v>324.7405608043119</v>
+        <v>324.7405608043117</v>
       </c>
       <c r="K11" t="n">
-        <v>486.7019203394628</v>
+        <v>486.7019203394625</v>
       </c>
       <c r="L11" t="n">
-        <v>603.7967693088433</v>
+        <v>603.796769308843</v>
       </c>
       <c r="M11" t="n">
-        <v>671.840245038426</v>
+        <v>671.8402450384257</v>
       </c>
       <c r="N11" t="n">
-        <v>682.7113225904991</v>
+        <v>682.7113225904986</v>
       </c>
       <c r="O11" t="n">
-        <v>644.6649425083432</v>
+        <v>644.6649425083428</v>
       </c>
       <c r="P11" t="n">
-        <v>550.2066135803007</v>
+        <v>550.2066135803003</v>
       </c>
       <c r="Q11" t="n">
-        <v>413.1822528821529</v>
+        <v>413.1822528821526</v>
       </c>
       <c r="R11" t="n">
-        <v>240.3450330947302</v>
+        <v>240.34503309473</v>
       </c>
       <c r="S11" t="n">
-        <v>87.18862462573242</v>
+        <v>87.18862462573237</v>
       </c>
       <c r="T11" t="n">
-        <v>16.74901609650657</v>
+        <v>16.74901609650656</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3060928127288463</v>
+        <v>0.3060928127288461</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04717616437695</v>
+        <v>2.047176164376949</v>
       </c>
       <c r="H12" t="n">
-        <v>19.77141190332476</v>
+        <v>19.77141190332474</v>
       </c>
       <c r="I12" t="n">
-        <v>70.48391618578535</v>
+        <v>70.4839161857853</v>
       </c>
       <c r="J12" t="n">
-        <v>193.4132533194907</v>
+        <v>193.4132533194906</v>
       </c>
       <c r="K12" t="n">
-        <v>330.5740563327464</v>
+        <v>330.5740563327462</v>
       </c>
       <c r="L12" t="n">
-        <v>444.4976141117584</v>
+        <v>444.4976141117581</v>
       </c>
       <c r="M12" t="n">
-        <v>518.7077500704228</v>
+        <v>518.7077500704224</v>
       </c>
       <c r="N12" t="n">
-        <v>532.436400751705</v>
+        <v>532.4364007517048</v>
       </c>
       <c r="O12" t="n">
-        <v>487.0752867936684</v>
+        <v>487.0752867936681</v>
       </c>
       <c r="P12" t="n">
-        <v>390.9208589677353</v>
+        <v>390.9208589677351</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.3202416141525</v>
+        <v>261.3202416141523</v>
       </c>
       <c r="R12" t="n">
         <v>127.1044990478952</v>
       </c>
       <c r="S12" t="n">
-        <v>38.0253993690192</v>
+        <v>38.02539936901918</v>
       </c>
       <c r="T12" t="n">
-        <v>8.2515565572913</v>
+        <v>8.251556557291295</v>
       </c>
       <c r="U12" t="n">
         <v>0.1346826423932204</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.716283727109234</v>
+        <v>1.716283727109233</v>
       </c>
       <c r="H13" t="n">
-        <v>15.25932259193484</v>
+        <v>15.25932259193483</v>
       </c>
       <c r="I13" t="n">
-        <v>51.61333244797591</v>
+        <v>51.61333244797587</v>
       </c>
       <c r="J13" t="n">
-        <v>121.3412595066229</v>
+        <v>121.3412595066228</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4009639314183</v>
+        <v>199.4009639314182</v>
       </c>
       <c r="L13" t="n">
-        <v>255.1645824831311</v>
+        <v>255.164582483131</v>
       </c>
       <c r="M13" t="n">
-        <v>269.0352755140411</v>
+        <v>269.035275514041</v>
       </c>
       <c r="N13" t="n">
-        <v>262.6382179857251</v>
+        <v>262.638217985725</v>
       </c>
       <c r="O13" t="n">
-        <v>242.5889035372217</v>
+        <v>242.5889035372216</v>
       </c>
       <c r="P13" t="n">
-        <v>207.5767155041931</v>
+        <v>207.576715504193</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.7153582763924</v>
+        <v>143.7153582763923</v>
       </c>
       <c r="R13" t="n">
-        <v>77.17035740256611</v>
+        <v>77.17035740256605</v>
       </c>
       <c r="S13" t="n">
-        <v>29.91014458971274</v>
+        <v>29.91014458971272</v>
       </c>
       <c r="T13" t="n">
-        <v>7.333212288557636</v>
+        <v>7.333212288557632</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09361547602414017</v>
+        <v>0.09361547602414011</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
         <v>781.7148990095023</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -34153,7 +34153,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>143.6946562776256</v>
+        <v>143.6946562776254</v>
       </c>
       <c r="K11" t="n">
-        <v>266.6120692944822</v>
+        <v>266.612069294482</v>
       </c>
       <c r="L11" t="n">
-        <v>368.0303543388561</v>
+        <v>368.0303543388557</v>
       </c>
       <c r="M11" t="n">
-        <v>441.4940118111533</v>
+        <v>441.494011811153</v>
       </c>
       <c r="N11" t="n">
-        <v>453.2982589939082</v>
+        <v>453.2982589939077</v>
       </c>
       <c r="O11" t="n">
-        <v>414.5667310866564</v>
+        <v>414.5667310866561</v>
       </c>
       <c r="P11" t="n">
-        <v>318.9736178250311</v>
+        <v>318.9736178250308</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.8765630077034</v>
+        <v>190.8765630077031</v>
       </c>
       <c r="R11" t="n">
-        <v>24.75949528059803</v>
+        <v>24.75949528059789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.02646600124683</v>
+        <v>87.0264660012468</v>
       </c>
       <c r="K12" t="n">
         <v>213.1834567068101</v>
       </c>
       <c r="L12" t="n">
-        <v>326.394073680307</v>
+        <v>326.3940736803069</v>
       </c>
       <c r="M12" t="n">
-        <v>397.0245554968272</v>
+        <v>397.024555496827</v>
       </c>
       <c r="N12" t="n">
-        <v>421.5455280167945</v>
+        <v>421.5455280167944</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9298816976467</v>
+        <v>364.9298816976466</v>
       </c>
       <c r="P12" t="n">
-        <v>277.3972909018279</v>
+        <v>277.3972909018278</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.7893068765537</v>
+        <v>141.7893068765536</v>
       </c>
       <c r="R12" t="n">
         <v>1.875834432354075</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.43291873837288</v>
+        <v>48.4329187383729</v>
       </c>
       <c r="K13" t="n">
         <v>197.5823114539582</v>
       </c>
       <c r="L13" t="n">
-        <v>303.2054470918701</v>
+        <v>303.20544709187</v>
       </c>
       <c r="M13" t="n">
-        <v>329.0699918243045</v>
+        <v>329.0699918243044</v>
       </c>
       <c r="N13" t="n">
-        <v>327.2212297133765</v>
+        <v>327.2212297133764</v>
       </c>
       <c r="O13" t="n">
-        <v>287.6248707996842</v>
+        <v>287.6248707996841</v>
       </c>
       <c r="P13" t="n">
         <v>225.3061141175094</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629512</v>
+        <v>84.09185697629519</v>
       </c>
       <c r="K16" t="n">
         <v>244.5610999075485</v>
@@ -35811,16 +35811,16 @@
         <v>358.270812533427</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567127</v>
+        <v>386.1468197567128</v>
       </c>
       <c r="N16" t="n">
-        <v>383.3703865307689</v>
+        <v>383.370386530769</v>
       </c>
       <c r="O16" t="n">
         <v>340.8665705858687</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083393</v>
+        <v>273.4705115083394</v>
       </c>
       <c r="Q16" t="n">
         <v>116.9076789011226</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36036,10 +36036,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J19" t="n">
-        <v>109.6268955184478</v>
+        <v>88.27060879450225</v>
       </c>
       <c r="K19" t="n">
         <v>196.988613427772</v>
@@ -36048,22 +36048,22 @@
         <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>225.7247647372419</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K22" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609164</v>
       </c>
       <c r="P22" t="n">
-        <v>186.3638087115542</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266797</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K25" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272367</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
         <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.37971366430307</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057564</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>35.65695110675617</v>
+        <v>35.6569511067562</v>
       </c>
       <c r="J26" t="n">
         <v>268.0208818483947</v>
@@ -36604,19 +36604,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>629.5357162925935</v>
+        <v>629.5357162925936</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>585.2868817679013</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>423.5284316307153</v>
       </c>
       <c r="Q26" t="n">
-        <v>275.5607502150632</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>136.8470794219069</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.17605617002501</v>
+        <v>122.8122974927484</v>
       </c>
       <c r="K28" t="n">
-        <v>176.5377740793492</v>
+        <v>283.2815404240017</v>
       </c>
       <c r="L28" t="n">
-        <v>352.0082967002642</v>
+        <v>234.5165515083258</v>
       </c>
       <c r="M28" t="n">
         <v>246.3575993637203</v>
@@ -36765,13 +36765,13 @@
         <v>250.2731102027604</v>
       </c>
       <c r="O28" t="n">
-        <v>379.5870111023219</v>
+        <v>216.5453447364395</v>
       </c>
       <c r="P28" t="n">
-        <v>177.1843887107514</v>
+        <v>251.9948342234446</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.28516103982432</v>
+        <v>155.6281194175758</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.59435009195006</v>
+        <v>17.59435009195005</v>
       </c>
       <c r="J29" t="n">
         <v>249.9582808335886</v>
@@ -36841,13 +36841,13 @@
         <v>598.0923956951028</v>
       </c>
       <c r="N29" t="n">
-        <v>611.4731152777875</v>
+        <v>611.4731152777874</v>
       </c>
       <c r="O29" t="n">
         <v>567.2242807530952</v>
       </c>
       <c r="P29" t="n">
-        <v>457.9332660842479</v>
+        <v>457.9332660842476</v>
       </c>
       <c r="Q29" t="n">
         <v>309.9655846685955</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36993,7 +36993,7 @@
         <v>158.4751730645431</v>
       </c>
       <c r="L31" t="n">
-        <v>378.9286520350742</v>
+        <v>287.9820824144587</v>
       </c>
       <c r="M31" t="n">
         <v>406.8046592583598</v>
@@ -37005,7 +37005,7 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>203.1817813893709</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
         <v>72.22256002501821</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>17.59435009195005</v>
+        <v>17.59435009195006</v>
       </c>
       <c r="J32" t="n">
         <v>249.9582808335886</v>
@@ -37075,10 +37075,10 @@
         <v>514.7613942572082</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951026</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O32" t="n">
         <v>567.2242807530952</v>
@@ -37233,7 +37233,7 @@
         <v>378.9286520350742</v>
       </c>
       <c r="M34" t="n">
-        <v>315.8580896377448</v>
+        <v>406.8046592583598</v>
       </c>
       <c r="N34" t="n">
         <v>404.0282260324161</v>
@@ -37242,7 +37242,7 @@
         <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>294.1283510099864</v>
+        <v>203.1817813893713</v>
       </c>
       <c r="Q34" t="n">
         <v>72.2225600250182</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.248832687093509e-12</v>
+        <v>-1.449794268924649e-12</v>
       </c>
       <c r="J35" t="n">
         <v>190.7870009687126</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266925</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K37" t="n">
-        <v>196.988613427772</v>
+        <v>175.6323267038256</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P37" t="n">
-        <v>186.3638087115546</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510692</v>
       </c>
       <c r="M40" t="n">
-        <v>255.5370193645234</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591742</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057692</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266783</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J43" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881991</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>215.6398973609187</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266897</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121432</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609174</v>
       </c>
       <c r="P46" t="n">
-        <v>176.2789413352287</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057663</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
